--- a/notebooks/model/RNN/registro_ejecuciones/reg.xlsx
+++ b/notebooks/model/RNN/registro_ejecuciones/reg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1260"/>
+  <dimension ref="A1:K1314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34424,10 +34424,8 @@
           <t>(None, 2, 40)</t>
         </is>
       </c>
-      <c r="J1258" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
+      <c r="J1258" t="n">
+        <v>2040</v>
       </c>
       <c r="K1258" t="inlineStr"/>
     </row>
@@ -34453,10 +34451,8 @@
           <t>(None, 2, 20)</t>
         </is>
       </c>
-      <c r="J1259" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
+      <c r="J1259" t="n">
+        <v>1220</v>
       </c>
       <c r="K1259" t="inlineStr"/>
     </row>
@@ -34482,12 +34478,1474 @@
           <t>(None, 2, 15)</t>
         </is>
       </c>
-      <c r="J1260" t="inlineStr">
+      <c r="J1260" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1261" t="n">
+        <v>0.009872398630230914</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>0.09935994479784555</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>0.06437634347454878</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>0.4834411127187722</v>
+      </c>
+      <c r="G1261" t="inlineStr"/>
+      <c r="H1261" t="inlineStr"/>
+      <c r="I1261" t="inlineStr"/>
+      <c r="J1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1262" t="n">
+        <v>0.01386463679496817</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>0.1177481923214457</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>0.0805912140079774</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>0.3137597359683351</v>
+      </c>
+      <c r="G1262" t="inlineStr"/>
+      <c r="H1262" t="inlineStr"/>
+      <c r="I1262" t="inlineStr"/>
+      <c r="J1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr"/>
+      <c r="B1263" t="inlineStr"/>
+      <c r="C1263" t="inlineStr"/>
+      <c r="D1263" t="inlineStr"/>
+      <c r="E1263" t="inlineStr"/>
+      <c r="F1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1263" t="inlineStr">
+        <is>
+          <t>(None, 1, 40)</t>
+        </is>
+      </c>
+      <c r="J1263" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr"/>
+      <c r="B1264" t="inlineStr"/>
+      <c r="C1264" t="inlineStr"/>
+      <c r="D1264" t="inlineStr"/>
+      <c r="E1264" t="inlineStr"/>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>simple_rnn_1</t>
+        </is>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1264" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J1264" t="n">
+        <v>1220</v>
+      </c>
+      <c r="K1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr"/>
+      <c r="B1265" t="inlineStr"/>
+      <c r="C1265" t="inlineStr"/>
+      <c r="D1265" t="inlineStr"/>
+      <c r="E1265" t="inlineStr"/>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>simple_rnn_2</t>
+        </is>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1265" t="inlineStr">
+        <is>
+          <t>(None, 1, 15)</t>
+        </is>
+      </c>
+      <c r="J1265" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1266" t="n">
+        <v>497.1104869838881</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>22.29597468118153</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>14.43823459345886</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>0.2684788015019806</v>
+      </c>
+      <c r="G1266" t="inlineStr"/>
+      <c r="H1266" t="inlineStr"/>
+      <c r="I1266" t="inlineStr"/>
+      <c r="J1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1267" t="n">
+        <v>632.3030596357684</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>25.14563699005791</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>17.39207639617345</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>0.1482463473223414</v>
+      </c>
+      <c r="G1267" t="inlineStr"/>
+      <c r="H1267" t="inlineStr"/>
+      <c r="I1267" t="inlineStr"/>
+      <c r="J1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1268" t="n">
+        <v>472.4108227487625</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>21.73501375082985</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>13.77812686119666</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>0.3049274688489424</v>
+      </c>
+      <c r="G1268" t="inlineStr"/>
+      <c r="H1268" t="inlineStr"/>
+      <c r="I1268" t="inlineStr"/>
+      <c r="J1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1269" t="n">
+        <v>671.7737138546703</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>25.91859783735745</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>17.89951164988856</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>0.09520166211454151</v>
+      </c>
+      <c r="G1269" t="inlineStr"/>
+      <c r="H1269" t="inlineStr"/>
+      <c r="I1269" t="inlineStr"/>
+      <c r="J1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr"/>
+      <c r="B1270" t="inlineStr"/>
+      <c r="C1270" t="inlineStr"/>
+      <c r="D1270" t="inlineStr"/>
+      <c r="E1270" t="inlineStr"/>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1270" t="inlineStr">
+        <is>
+          <t>(None, 2, 40)</t>
+        </is>
+      </c>
+      <c r="J1270" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr"/>
+      <c r="B1271" t="inlineStr"/>
+      <c r="C1271" t="inlineStr"/>
+      <c r="D1271" t="inlineStr"/>
+      <c r="E1271" t="inlineStr"/>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="inlineStr">
+        <is>
+          <t>simple_rnn_1</t>
+        </is>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1271" t="inlineStr">
+        <is>
+          <t>(None, 2, 20)</t>
+        </is>
+      </c>
+      <c r="J1271" t="n">
+        <v>1220</v>
+      </c>
+      <c r="K1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr"/>
+      <c r="B1272" t="inlineStr"/>
+      <c r="C1272" t="inlineStr"/>
+      <c r="D1272" t="inlineStr"/>
+      <c r="E1272" t="inlineStr"/>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="inlineStr">
+        <is>
+          <t>simple_rnn_2</t>
+        </is>
+      </c>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1272" t="inlineStr">
+        <is>
+          <t>(None, 2, 15)</t>
+        </is>
+      </c>
+      <c r="J1272" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1273" t="n">
+        <v>0.009313430345301439</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>0.09650611558497958</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>0.06661513043308126</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>0.5126883145491861</v>
+      </c>
+      <c r="G1273" t="inlineStr"/>
+      <c r="H1273" t="inlineStr"/>
+      <c r="I1273" t="inlineStr"/>
+      <c r="J1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1274" t="n">
+        <v>0.01490642208787324</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>0.1220918592203151</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>0.08878556853436942</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>0.2621958165494767</v>
+      </c>
+      <c r="G1274" t="inlineStr"/>
+      <c r="H1274" t="inlineStr"/>
+      <c r="I1274" t="inlineStr"/>
+      <c r="J1274" t="inlineStr"/>
+      <c r="K1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr"/>
+      <c r="B1275" t="inlineStr"/>
+      <c r="C1275" t="inlineStr"/>
+      <c r="D1275" t="inlineStr"/>
+      <c r="E1275" t="inlineStr"/>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="inlineStr">
+        <is>
+          <t>simple_rnn_3</t>
+        </is>
+      </c>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1275" t="inlineStr">
+        <is>
+          <t>(None, 1, 40)</t>
+        </is>
+      </c>
+      <c r="J1275" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr"/>
+      <c r="B1276" t="inlineStr"/>
+      <c r="C1276" t="inlineStr"/>
+      <c r="D1276" t="inlineStr"/>
+      <c r="E1276" t="inlineStr"/>
+      <c r="F1276" t="inlineStr"/>
+      <c r="G1276" t="inlineStr">
+        <is>
+          <t>simple_rnn_4</t>
+        </is>
+      </c>
+      <c r="H1276" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1276" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J1276" t="n">
+        <v>1220</v>
+      </c>
+      <c r="K1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr"/>
+      <c r="B1277" t="inlineStr"/>
+      <c r="C1277" t="inlineStr"/>
+      <c r="D1277" t="inlineStr"/>
+      <c r="E1277" t="inlineStr"/>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="inlineStr">
+        <is>
+          <t>simple_rnn_5</t>
+        </is>
+      </c>
+      <c r="H1277" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1277" t="inlineStr">
+        <is>
+          <t>(None, 1, 15)</t>
+        </is>
+      </c>
+      <c r="J1277" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1278" t="n">
+        <v>480.9309855042647</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>21.93013874794833</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>14.67079888885036</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>0.2922876903171912</v>
+      </c>
+      <c r="G1278" t="inlineStr"/>
+      <c r="H1278" t="inlineStr"/>
+      <c r="I1278" t="inlineStr"/>
+      <c r="J1278" t="inlineStr"/>
+      <c r="K1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1279" t="n">
+        <v>624.6258021455568</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>24.9925149223834</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>16.8813696417387</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>0.158588116210193</v>
+      </c>
+      <c r="G1279" t="inlineStr"/>
+      <c r="H1279" t="inlineStr"/>
+      <c r="I1279" t="inlineStr"/>
+      <c r="J1279" t="inlineStr"/>
+      <c r="K1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1280" t="n">
+        <v>462.6354222836132</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>21.50896144130658</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>13.25810280145317</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>0.3193103153400358</v>
+      </c>
+      <c r="G1280" t="inlineStr"/>
+      <c r="H1280" t="inlineStr"/>
+      <c r="I1280" t="inlineStr"/>
+      <c r="J1280" t="inlineStr"/>
+      <c r="K1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1281" t="n">
+        <v>711.5236544077685</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>26.67440073193339</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>18.09118767410072</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>0.04166327649192425</v>
+      </c>
+      <c r="G1281" t="inlineStr"/>
+      <c r="H1281" t="inlineStr"/>
+      <c r="I1281" t="inlineStr"/>
+      <c r="J1281" t="inlineStr"/>
+      <c r="K1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr"/>
+      <c r="B1282" t="inlineStr"/>
+      <c r="C1282" t="inlineStr"/>
+      <c r="D1282" t="inlineStr"/>
+      <c r="E1282" t="inlineStr"/>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="inlineStr">
+        <is>
+          <t>simple_rnn_3</t>
+        </is>
+      </c>
+      <c r="H1282" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1282" t="inlineStr">
+        <is>
+          <t>(None, 2, 40)</t>
+        </is>
+      </c>
+      <c r="J1282" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr"/>
+      <c r="B1283" t="inlineStr"/>
+      <c r="C1283" t="inlineStr"/>
+      <c r="D1283" t="inlineStr"/>
+      <c r="E1283" t="inlineStr"/>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="inlineStr">
+        <is>
+          <t>simple_rnn_4</t>
+        </is>
+      </c>
+      <c r="H1283" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1283" t="inlineStr">
+        <is>
+          <t>(None, 2, 20)</t>
+        </is>
+      </c>
+      <c r="J1283" t="n">
+        <v>1220</v>
+      </c>
+      <c r="K1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr"/>
+      <c r="B1284" t="inlineStr"/>
+      <c r="C1284" t="inlineStr"/>
+      <c r="D1284" t="inlineStr"/>
+      <c r="E1284" t="inlineStr"/>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="inlineStr">
+        <is>
+          <t>simple_rnn_5</t>
+        </is>
+      </c>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1284" t="inlineStr">
+        <is>
+          <t>(None, 2, 15)</t>
+        </is>
+      </c>
+      <c r="J1284" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1285" t="n">
+        <v>0.009581362661822863</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>0.09788443523779898</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>0.06436998552038567</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>0.49866914611071</v>
+      </c>
+      <c r="G1285" t="inlineStr"/>
+      <c r="H1285" t="inlineStr"/>
+      <c r="I1285" t="inlineStr"/>
+      <c r="J1285" t="inlineStr"/>
+      <c r="K1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1286" t="n">
+        <v>0.01367750416706435</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>0.1169508621903419</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>0.08248193328452763</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>0.3230220012465905</v>
+      </c>
+      <c r="G1286" t="inlineStr"/>
+      <c r="H1286" t="inlineStr"/>
+      <c r="I1286" t="inlineStr"/>
+      <c r="J1286" t="inlineStr"/>
+      <c r="K1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr"/>
+      <c r="B1287" t="inlineStr"/>
+      <c r="C1287" t="inlineStr"/>
+      <c r="D1287" t="inlineStr"/>
+      <c r="E1287" t="inlineStr"/>
+      <c r="F1287" t="inlineStr"/>
+      <c r="G1287" t="inlineStr">
+        <is>
+          <t>simple_rnn_6</t>
+        </is>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1287" t="inlineStr">
+        <is>
+          <t>(None, 1, 40)</t>
+        </is>
+      </c>
+      <c r="J1287" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr"/>
+      <c r="B1288" t="inlineStr"/>
+      <c r="C1288" t="inlineStr"/>
+      <c r="D1288" t="inlineStr"/>
+      <c r="E1288" t="inlineStr"/>
+      <c r="F1288" t="inlineStr"/>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>simple_rnn_7</t>
+        </is>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1288" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J1288" t="n">
+        <v>1220</v>
+      </c>
+      <c r="K1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr"/>
+      <c r="B1289" t="inlineStr"/>
+      <c r="C1289" t="inlineStr"/>
+      <c r="D1289" t="inlineStr"/>
+      <c r="E1289" t="inlineStr"/>
+      <c r="F1289" t="inlineStr"/>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>simple_rnn_8</t>
+        </is>
+      </c>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1289" t="inlineStr">
+        <is>
+          <t>(None, 1, 15)</t>
+        </is>
+      </c>
+      <c r="J1289" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1290" t="n">
+        <v>461.255564206519</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>21.47686113487069</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>14.37778886849186</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>0.3212409877139264</v>
+      </c>
+      <c r="G1290" t="inlineStr"/>
+      <c r="H1290" t="inlineStr"/>
+      <c r="I1290" t="inlineStr"/>
+      <c r="J1290" t="inlineStr"/>
+      <c r="K1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1291" t="n">
+        <v>644.8442775272567</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>25.39378423014689</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>17.79703953909626</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>0.1313525050653469</v>
+      </c>
+      <c r="G1291" t="inlineStr"/>
+      <c r="H1291" t="inlineStr"/>
+      <c r="I1291" t="inlineStr"/>
+      <c r="J1291" t="inlineStr"/>
+      <c r="K1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1292" t="n">
+        <v>481.06361071692</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>21.93316235103639</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>14.86273986501695</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>0.292196356552349</v>
+      </c>
+      <c r="G1292" t="inlineStr"/>
+      <c r="H1292" t="inlineStr"/>
+      <c r="I1292" t="inlineStr"/>
+      <c r="J1292" t="inlineStr"/>
+      <c r="K1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1293" t="n">
+        <v>673.6295573623188</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>25.95437453228875</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>17.93123807983568</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>0.09270206427904304</v>
+      </c>
+      <c r="G1293" t="inlineStr"/>
+      <c r="H1293" t="inlineStr"/>
+      <c r="I1293" t="inlineStr"/>
+      <c r="J1293" t="inlineStr"/>
+      <c r="K1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr"/>
+      <c r="B1294" t="inlineStr"/>
+      <c r="C1294" t="inlineStr"/>
+      <c r="D1294" t="inlineStr"/>
+      <c r="E1294" t="inlineStr"/>
+      <c r="F1294" t="inlineStr"/>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>simple_rnn_6</t>
+        </is>
+      </c>
+      <c r="H1294" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1294" t="inlineStr">
+        <is>
+          <t>(None, 2, 40)</t>
+        </is>
+      </c>
+      <c r="J1294" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr"/>
+      <c r="B1295" t="inlineStr"/>
+      <c r="C1295" t="inlineStr"/>
+      <c r="D1295" t="inlineStr"/>
+      <c r="E1295" t="inlineStr"/>
+      <c r="F1295" t="inlineStr"/>
+      <c r="G1295" t="inlineStr">
+        <is>
+          <t>simple_rnn_7</t>
+        </is>
+      </c>
+      <c r="H1295" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1295" t="inlineStr">
+        <is>
+          <t>(None, 2, 20)</t>
+        </is>
+      </c>
+      <c r="J1295" t="n">
+        <v>1220</v>
+      </c>
+      <c r="K1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1296" t="n">
+        <v>433.3374769178135</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>20.81675952010335</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>13.45392355149075</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>0.3623237514212791</v>
+      </c>
+      <c r="G1296" t="inlineStr"/>
+      <c r="H1296" t="inlineStr"/>
+      <c r="I1296" t="inlineStr"/>
+      <c r="J1296" t="inlineStr"/>
+      <c r="K1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1297" t="n">
+        <v>630.4281669585404</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>25.10832863729763</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>17.34615637208998</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>0.1507719506099917</v>
+      </c>
+      <c r="G1297" t="inlineStr"/>
+      <c r="H1297" t="inlineStr"/>
+      <c r="I1297" t="inlineStr"/>
+      <c r="J1297" t="inlineStr"/>
+      <c r="K1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1298" t="n">
+        <v>453.3754128986354</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>21.29261404568813</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>13.9214344104437</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>0.3329348511291367</v>
+      </c>
+      <c r="G1298" t="inlineStr"/>
+      <c r="H1298" t="inlineStr"/>
+      <c r="I1298" t="inlineStr"/>
+      <c r="J1298" t="inlineStr"/>
+      <c r="K1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1299" t="n">
+        <v>657.8582916381353</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>25.64874834447356</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>17.52627882073714</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>0.11394406098015</v>
+      </c>
+      <c r="G1299" t="inlineStr"/>
+      <c r="H1299" t="inlineStr"/>
+      <c r="I1299" t="inlineStr"/>
+      <c r="J1299" t="inlineStr"/>
+      <c r="K1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr"/>
+      <c r="B1300" t="inlineStr"/>
+      <c r="C1300" t="inlineStr"/>
+      <c r="D1300" t="inlineStr"/>
+      <c r="E1300" t="inlineStr"/>
+      <c r="F1300" t="inlineStr"/>
+      <c r="G1300" t="inlineStr">
+        <is>
+          <t>simple_rnn_8</t>
+        </is>
+      </c>
+      <c r="H1300" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1300" t="inlineStr">
+        <is>
+          <t>(None, 2, 40)</t>
+        </is>
+      </c>
+      <c r="J1300" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr"/>
+      <c r="B1301" t="inlineStr"/>
+      <c r="C1301" t="inlineStr"/>
+      <c r="D1301" t="inlineStr"/>
+      <c r="E1301" t="inlineStr"/>
+      <c r="F1301" t="inlineStr"/>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>simple_rnn_9</t>
+        </is>
+      </c>
+      <c r="H1301" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1301" t="inlineStr">
+        <is>
+          <t>(None, 2, 20)</t>
+        </is>
+      </c>
+      <c r="J1301" t="n">
+        <v>1220</v>
+      </c>
+      <c r="K1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr"/>
+      <c r="B1302" t="inlineStr"/>
+      <c r="C1302" t="inlineStr"/>
+      <c r="D1302" t="inlineStr"/>
+      <c r="E1302" t="inlineStr"/>
+      <c r="F1302" t="inlineStr"/>
+      <c r="G1302" t="inlineStr">
+        <is>
+          <t>simple_rnn_10</t>
+        </is>
+      </c>
+      <c r="H1302" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1302" t="inlineStr">
+        <is>
+          <t>(None, 2, 15)</t>
+        </is>
+      </c>
+      <c r="J1302" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1303" t="n">
+        <v>338.4338284749153</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>18.39657110645664</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>12.17505948979035</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>0.5018620435154935</v>
+      </c>
+      <c r="G1303" t="inlineStr"/>
+      <c r="H1303" t="inlineStr"/>
+      <c r="I1303" t="inlineStr"/>
+      <c r="J1303" t="inlineStr"/>
+      <c r="K1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1304" t="n">
+        <v>456.3008385019222</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>21.36119936946243</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>15.10577483482529</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>0.3854444470761322</v>
+      </c>
+      <c r="G1304" t="inlineStr"/>
+      <c r="H1304" t="inlineStr"/>
+      <c r="I1304" t="inlineStr"/>
+      <c r="J1304" t="inlineStr"/>
+      <c r="K1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr"/>
+      <c r="B1305" t="inlineStr"/>
+      <c r="C1305" t="inlineStr"/>
+      <c r="D1305" t="inlineStr"/>
+      <c r="E1305" t="inlineStr"/>
+      <c r="F1305" t="inlineStr"/>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>simple_rnn_9</t>
+        </is>
+      </c>
+      <c r="H1305" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1305" t="inlineStr">
+        <is>
+          <t>(None, 1, 40)</t>
+        </is>
+      </c>
+      <c r="J1305" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr"/>
+      <c r="B1306" t="inlineStr"/>
+      <c r="C1306" t="inlineStr"/>
+      <c r="D1306" t="inlineStr"/>
+      <c r="E1306" t="inlineStr"/>
+      <c r="F1306" t="inlineStr"/>
+      <c r="G1306" t="inlineStr">
+        <is>
+          <t>simple_rnn_10</t>
+        </is>
+      </c>
+      <c r="H1306" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1306" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J1306" t="n">
+        <v>1220</v>
+      </c>
+      <c r="K1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr"/>
+      <c r="B1307" t="inlineStr"/>
+      <c r="C1307" t="inlineStr"/>
+      <c r="D1307" t="inlineStr"/>
+      <c r="E1307" t="inlineStr"/>
+      <c r="F1307" t="inlineStr"/>
+      <c r="G1307" t="inlineStr">
+        <is>
+          <t>simple_rnn_11</t>
+        </is>
+      </c>
+      <c r="H1307" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1307" t="inlineStr">
+        <is>
+          <t>(None, 1, 15)</t>
+        </is>
+      </c>
+      <c r="J1307" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1308" t="n">
+        <v>453.4874793109366</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>21.29524546256597</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>13.98239617414072</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>0.332672085873469</v>
+      </c>
+      <c r="G1308" t="inlineStr"/>
+      <c r="H1308" t="inlineStr"/>
+      <c r="I1308" t="inlineStr"/>
+      <c r="J1308" t="inlineStr"/>
+      <c r="K1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1309" t="n">
+        <v>610.1836569065121</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>24.70189581604036</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>17.19287473888346</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>0.1780426321616793</v>
+      </c>
+      <c r="G1309" t="inlineStr"/>
+      <c r="H1309" t="inlineStr"/>
+      <c r="I1309" t="inlineStr"/>
+      <c r="J1309" t="inlineStr"/>
+      <c r="K1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C1310" t="n">
+        <v>450.362968892776</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>21.2217569699772</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>13.24269895898927</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>0.3373671523789686</v>
+      </c>
+      <c r="G1310" t="inlineStr"/>
+      <c r="H1310" t="inlineStr"/>
+      <c r="I1310" t="inlineStr"/>
+      <c r="J1310" t="inlineStr"/>
+      <c r="K1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C1311" t="n">
+        <v>630.3148910671188</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>25.10607279259579</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>17.0797728183277</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>0.1510417064259205</v>
+      </c>
+      <c r="G1311" t="inlineStr"/>
+      <c r="H1311" t="inlineStr"/>
+      <c r="I1311" t="inlineStr"/>
+      <c r="J1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr"/>
+      <c r="B1312" t="inlineStr"/>
+      <c r="C1312" t="inlineStr"/>
+      <c r="D1312" t="inlineStr"/>
+      <c r="E1312" t="inlineStr"/>
+      <c r="F1312" t="inlineStr"/>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1312" t="inlineStr">
+        <is>
+          <t>(None, 2, 60)</t>
+        </is>
+      </c>
+      <c r="J1312" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="K1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr"/>
+      <c r="B1313" t="inlineStr"/>
+      <c r="C1313" t="inlineStr"/>
+      <c r="D1313" t="inlineStr"/>
+      <c r="E1313" t="inlineStr"/>
+      <c r="F1313" t="inlineStr"/>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>simple_rnn_1</t>
+        </is>
+      </c>
+      <c r="H1313" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1313" t="inlineStr">
+        <is>
+          <t>(None, 2, 20)</t>
+        </is>
+      </c>
+      <c r="J1313" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="K1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr"/>
+      <c r="B1314" t="inlineStr"/>
+      <c r="C1314" t="inlineStr"/>
+      <c r="D1314" t="inlineStr"/>
+      <c r="E1314" t="inlineStr"/>
+      <c r="F1314" t="inlineStr"/>
+      <c r="G1314" t="inlineStr">
+        <is>
+          <t>simple_rnn_2</t>
+        </is>
+      </c>
+      <c r="H1314" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I1314" t="inlineStr">
+        <is>
+          <t>(None, 2, 15)</t>
+        </is>
+      </c>
+      <c r="J1314" t="inlineStr">
         <is>
           <t>540</t>
         </is>
       </c>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1314" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
